--- a/src/test/resources/TestData/output/SmartScrappers_Team17_Hypertension.xlsx
+++ b/src/test/resources/TestData/output/SmartScrappers_Team17_Hypertension.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="679">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/minty-couscous-7445r</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">2 tbsp chopped mint leaves (phudina)
@@ -98,6 +104,12 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/semiya-vegetable-upma-vermicelli-veg-upma-low-salt-22307r</t>
+  </si>
+  <si>
+    <t>Breakfast, Snack</t>
+  </si>
+  <si>
+    <t>Veg</t>
   </si>
   <si>
     <t xml:space="preserve">1 cup whole wheat vermicelli (semiya)
@@ -143,6 +155,12 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/oats-vegetable-khichdi-healthy-oats-khichdi-for-weight-loss-22327r</t>
+  </si>
+  <si>
+    <t>Lunch, Dinner</t>
+  </si>
+  <si>
+    <t>Vegetarian, Veg</t>
   </si>
   <si>
     <t xml:space="preserve">1 cup quick cooking rolled oats
@@ -404,6 +422,9 @@
     <t>https://www.tarladalal.com/bajra-roti-3892r</t>
   </si>
   <si>
+    <t>Lunch</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 cups bajra (black millet) flour
 1/4 cup whole wheat flour (gehun ka atta)
 salt to taste
@@ -441,6 +462,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/cabbage-and-dal-parathas-22309r</t>
+  </si>
+  <si>
+    <t>Breakfast, Lunch, Dinner</t>
   </si>
   <si>
     <t xml:space="preserve">1 cup whole wheat flour (gehun ka atta)
@@ -565,6 +589,9 @@
     <t>https://www.tarladalal.com/rajma-brown-rice-low-salt-recipe-42032r</t>
   </si>
   <si>
+    <t>Dinner</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/2 cup rajma (kidney beans)
 3 cups soaked and cooked brown rice
 1 1/2 tsp oil
@@ -607,6 +634,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t>Jain</t>
   </si>
   <si>
     <t xml:space="preserve">2 tbsp sprouted moong (whole green gram)
@@ -718,6 +748,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/poha-nachni-handvo-22308r</t>
+  </si>
+  <si>
+    <t>Breakfast, Lunch, Snack, Dinner</t>
   </si>
   <si>
     <t xml:space="preserve">1 cup thick beaten rice (jada poha) , washed and drained
@@ -769,6 +802,9 @@
     <t>https://www.tarladalal.com/vegan-oats-and-coconut-milk-pudding-42346r</t>
   </si>
   <si>
+    <t>Vegan, Veg</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/2 cup quick cooking rolled oats
 1 1/4 cups coconut milk (nariyal ka doodh)
 1 1/2 tbsp peanut butter
@@ -1050,9 +1086,6 @@
 Use the basic vegetable stock as required.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>41113</t>
   </si>
   <si>
@@ -1118,6 +1151,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/date-and-walnut-balls-5596r</t>
+  </si>
+  <si>
+    <t>Snack</t>
   </si>
   <si>
     <t xml:space="preserve">1/2 cup finely chopped black seedless dates
@@ -1215,6 +1251,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/nutritious-thalipeeth-7457r</t>
+  </si>
+  <si>
+    <t>Breakfast, Lunch, Snack</t>
   </si>
   <si>
     <t xml:space="preserve">3 tbsp bajra (black millet) flour
@@ -1811,6 +1850,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/quick-tomato-rasam-low-salt-recipe-42030r</t>
+  </si>
+  <si>
+    <t>Breakfast, Lunch</t>
   </si>
   <si>
     <t xml:space="preserve">1/2 tbsp chana dal (split bengal gram)
@@ -4134,3249 +4176,3669 @@
       <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F3" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+        <v>43</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F5" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F6" t="s" s="0">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+        <v>57</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>46</v>
-      </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
+        <v>63</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F8" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F9" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="I9" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
+        <v>76</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F10" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+        <v>83</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F11" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+        <v>91</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F12" t="s" s="0">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F13" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+        <v>106</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F14" t="s" s="0">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+        <v>112</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F15" t="s" s="0">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
+        <v>120</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>121</v>
+      </c>
       <c r="F16" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>106</v>
-      </c>
       <c r="I17" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+        <v>133</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F18" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
+        <v>139</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F19" t="s" s="0">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
+        <v>147</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>148</v>
+      </c>
       <c r="F20" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
+        <v>155</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F21" t="s" s="0">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
       <c r="F22" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+        <v>168</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F23" t="s" s="0">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
+        <v>174</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F24" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
+        <v>180</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F25" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
+        <v>186</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F26" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
+        <v>193</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>148</v>
+      </c>
       <c r="F27" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
+        <v>198</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F28" t="s" s="0">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
+        <v>204</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F29" t="s" s="0">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>199</v>
-      </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
+        <v>210</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F30" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
+        <v>217</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F31" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>211</v>
-      </c>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
+        <v>223</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F32" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
+        <v>229</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F33" t="s" s="0">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>223</v>
-      </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
+        <v>236</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F34" t="s" s="0">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
+        <v>242</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F35" t="s" s="0">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
+        <v>248</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F36" t="s" s="0">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>241</v>
-      </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
+        <v>254</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F37" t="s" s="0">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>247</v>
-      </c>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
+        <v>260</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F38" t="s" s="0">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
+        <v>266</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F39" t="s" s="0">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>259</v>
-      </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
+        <v>272</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F40" t="s" s="0">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
+        <v>278</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F41" t="s" s="0">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
+        <v>284</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F42" t="s" s="0">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>276</v>
-      </c>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
+        <v>289</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F43" t="s" s="0">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>282</v>
-      </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
+        <v>295</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F44" t="s" s="0">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>288</v>
-      </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
+        <v>301</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F45" t="s" s="0">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>294</v>
-      </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
+        <v>307</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F46" t="s" s="0">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
+        <v>313</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F47" t="s" s="0">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
+        <v>319</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F48" t="s" s="0">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>312</v>
-      </c>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
+        <v>325</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>148</v>
+      </c>
       <c r="F49" t="s" s="0">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>318</v>
-      </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
+        <v>331</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F50" t="s" s="0">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>324</v>
-      </c>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
+        <v>338</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F51" t="s" s="0">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>331</v>
-      </c>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
+        <v>345</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F52" t="s" s="0">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>338</v>
-      </c>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
+        <v>352</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F53" t="s" s="0">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s" s="0">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
+        <v>358</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F54" t="s" s="0">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>351</v>
-      </c>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
+        <v>365</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F55" t="s" s="0">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>357</v>
-      </c>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
+        <v>371</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F56" t="s" s="0">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="0">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="K56" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>363</v>
-      </c>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
+        <v>377</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F57" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="K57" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>370</v>
-      </c>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
+        <v>384</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F58" t="s" s="0">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="G58" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I58" t="s" s="0">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="J58" t="s" s="0">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>376</v>
-      </c>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
+        <v>390</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F59" t="s" s="0">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="G59" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s" s="0">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="J59" t="s" s="0">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="K59" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>382</v>
-      </c>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
+        <v>396</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F60" t="s" s="0">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="I60" t="s" s="0">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>389</v>
-      </c>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
+        <v>403</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F61" t="s" s="0">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>395</v>
-      </c>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
+        <v>409</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F62" t="s" s="0">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="G62" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="I62" t="s" s="0">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>402</v>
-      </c>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
+        <v>416</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F63" t="s" s="0">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>409</v>
-      </c>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
+        <v>423</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F64" t="s" s="0">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="J64" t="s" s="0">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="K64" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>415</v>
-      </c>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
+        <v>429</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F65" t="s" s="0">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I65" t="s" s="0">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="J65" t="s" s="0">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="K65" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
+        <v>435</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>148</v>
+      </c>
       <c r="F66" t="s" s="0">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I66" t="s" s="0">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="J66" t="s" s="0">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>427</v>
-      </c>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
+        <v>441</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F67" t="s" s="0">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I67" t="s" s="0">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="J67" t="s" s="0">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="K67" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>433</v>
-      </c>
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
+        <v>447</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F68" t="s" s="0">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s" s="0">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="J68" t="s" s="0">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="K68" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>439</v>
-      </c>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
+        <v>453</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F69" t="s" s="0">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I69" t="s" s="0">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="J69" t="s" s="0">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>444</v>
-      </c>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
+        <v>458</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F70" t="s" s="0">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="I70" t="s" s="0">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="J70" t="s" s="0">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="K70" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>451</v>
-      </c>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
+        <v>465</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F71" t="s" s="0">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I71" t="s" s="0">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="J71" t="s" s="0">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>457</v>
-      </c>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
+        <v>471</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F72" t="s" s="0">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I72" t="s" s="0">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="J72" t="s" s="0">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="K72" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>463</v>
-      </c>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
+        <v>477</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F73" t="s" s="0">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="J73" t="s" s="0">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="K73" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>469</v>
-      </c>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
+        <v>483</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F74" t="s" s="0">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="G74" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H74" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="J74" t="s" s="0">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K74" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>475</v>
-      </c>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
+        <v>489</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F75" t="s" s="0">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="G75" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I75" t="s" s="0">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="J75" t="s" s="0">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>481</v>
-      </c>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
+        <v>495</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F76" t="s" s="0">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G76" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="J76" t="s" s="0">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>487</v>
-      </c>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
+        <v>501</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F77" t="s" s="0">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="I77" t="s" s="0">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="J77" t="s" s="0">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>494</v>
-      </c>
-      <c r="D78" s="0"/>
-      <c r="E78" s="0"/>
+        <v>508</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F78" t="s" s="0">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="G78" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I78" t="s" s="0">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="J78" t="s" s="0">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="K78" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>500</v>
-      </c>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
+        <v>514</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F79" t="s" s="0">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I79" t="s" s="0">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="K79" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>506</v>
-      </c>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
+        <v>520</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F80" t="s" s="0">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I80" t="s" s="0">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="K80" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>512</v>
-      </c>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
+        <v>526</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F81" t="s" s="0">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="J81" t="s" s="0">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="K81" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>518</v>
-      </c>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
+        <v>532</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F82" t="s" s="0">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="G82" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I82" t="s" s="0">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="J82" t="s" s="0">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="K82" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>524</v>
-      </c>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
+        <v>538</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F83" t="s" s="0">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H83" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I83" t="s" s="0">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="J83" t="s" s="0">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="K83" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>530</v>
-      </c>
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
+        <v>544</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F84" t="s" s="0">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="G84" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I84" t="s" s="0">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="J84" t="s" s="0">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="K84" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>536</v>
-      </c>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
+        <v>550</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>148</v>
+      </c>
       <c r="F85" t="s" s="0">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="G85" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I85" t="s" s="0">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="J85" t="s" s="0">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="K85" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>542</v>
-      </c>
-      <c r="D86" s="0"/>
-      <c r="E86" s="0"/>
+        <v>556</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F86" t="s" s="0">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="G86" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I86" t="s" s="0">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="J86" t="s" s="0">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>548</v>
-      </c>
-      <c r="D87" s="0"/>
-      <c r="E87" s="0"/>
+        <v>562</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F87" t="s" s="0">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s" s="0">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="J87" t="s" s="0">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="K87" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>554</v>
-      </c>
-      <c r="D88" s="0"/>
-      <c r="E88" s="0"/>
+        <v>568</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F88" t="s" s="0">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="G88" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I88" t="s" s="0">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>560</v>
-      </c>
-      <c r="D89" s="0"/>
-      <c r="E89" s="0"/>
+        <v>574</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F89" t="s" s="0">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H89" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I89" t="s" s="0">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="K89" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>566</v>
-      </c>
-      <c r="D90" s="0"/>
-      <c r="E90" s="0"/>
+        <v>580</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F90" t="s" s="0">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H90" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s" s="0">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="J90" t="s" s="0">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="K90" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>572</v>
-      </c>
-      <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
+        <v>586</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F91" t="s" s="0">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H91" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I91" t="s" s="0">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="J91" t="s" s="0">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="K91" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>578</v>
-      </c>
-      <c r="D92" s="0"/>
-      <c r="E92" s="0"/>
+        <v>592</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F92" t="s" s="0">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I92" t="s" s="0">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="J92" t="s" s="0">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="K92" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>584</v>
-      </c>
-      <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
+        <v>598</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F93" t="s" s="0">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="J93" t="s" s="0">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="K93" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>590</v>
-      </c>
-      <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
+        <v>604</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F94" t="s" s="0">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H94" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I94" t="s" s="0">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="J94" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="K94" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>596</v>
-      </c>
-      <c r="D95" s="0"/>
-      <c r="E95" s="0"/>
+        <v>610</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F95" t="s" s="0">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="G95" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H95" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I95" t="s" s="0">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="J95" t="s" s="0">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="K95" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>602</v>
-      </c>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
+        <v>616</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F96" t="s" s="0">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="G96" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H96" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s" s="0">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="J96" t="s" s="0">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="K96" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>608</v>
-      </c>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
+        <v>622</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F97" t="s" s="0">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="G97" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I97" t="s" s="0">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="J97" t="s" s="0">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="K97" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>614</v>
-      </c>
-      <c r="D98" s="0"/>
-      <c r="E98" s="0"/>
+        <v>628</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F98" t="s" s="0">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="G98" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H98" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I98" t="s" s="0">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="J98" t="s" s="0">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="K98" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>620</v>
-      </c>
-      <c r="D99" s="0"/>
-      <c r="E99" s="0"/>
+        <v>634</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F99" t="s" s="0">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="G99" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I99" t="s" s="0">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="J99" t="s" s="0">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="K99" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>626</v>
-      </c>
-      <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
+        <v>640</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F100" t="s" s="0">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="G100" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I100" t="s" s="0">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="J100" t="s" s="0">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="K100" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>632</v>
-      </c>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
+        <v>646</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F101" t="s" s="0">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="G101" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H101" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I101" t="s" s="0">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="J101" t="s" s="0">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="K101" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>638</v>
-      </c>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
+        <v>652</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F102" t="s" s="0">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H102" t="s" s="0">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="I102" t="s" s="0">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="J102" t="s" s="0">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="K102" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>645</v>
-      </c>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
+        <v>659</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F103" t="s" s="0">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H103" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I103" t="s" s="0">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="J103" t="s" s="0">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="K103" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>650</v>
-      </c>
-      <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
+        <v>664</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F104" t="s" s="0">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="G104" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H104" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I104" t="s" s="0">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="J104" t="s" s="0">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="K104" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>656</v>
-      </c>
-      <c r="D105" s="0"/>
-      <c r="E105" s="0"/>
+        <v>670</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F105" t="s" s="0">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="G105" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H105" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I105" t="s" s="0">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="J105" t="s" s="0">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>662</v>
-      </c>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
+        <v>676</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F106" t="s" s="0">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="G106" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H106" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="J106" t="s" s="0">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="K106" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
